--- a/Base de datos Python/base_datos_empleo.xlsx
+++ b/Base de datos Python/base_datos_empleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\Base de datos Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BCCE1E-BA2B-4CC6-B39A-03ED955EE128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1299C57A-A715-41A3-9955-1725B4AAA52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS 2001 Y 2013 MUNIC" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="767">
   <si>
     <t>Año</t>
   </si>
@@ -2221,12 +2221,6 @@
     <t xml:space="preserve">de cero y las varianzas son diferentes por lo que no cumple con la </t>
   </si>
   <si>
-    <t xml:space="preserve">Regresion Espuria sobre Ocupados H y M </t>
-  </si>
-  <si>
-    <t>T- Students</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covarianza desocupados H y M </t>
   </si>
   <si>
@@ -2237,16 +2231,117 @@
   </si>
   <si>
     <t xml:space="preserve">Covarianza Inactivos H y M </t>
+  </si>
+  <si>
+    <t>Prueba t para medias de dos muestras emparejadas</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Coeficiente de correlación de Pearson</t>
+  </si>
+  <si>
+    <t>Diferencia hipotética de las medias</t>
+  </si>
+  <si>
+    <t>Grados de libertad</t>
+  </si>
+  <si>
+    <t>Estadístico t</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) una cola</t>
+  </si>
+  <si>
+    <t>Valor crítico de t (una cola)</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) dos colas</t>
+  </si>
+  <si>
+    <t>Valor crítico de t (dos colas)</t>
+  </si>
+  <si>
+    <t>Nivel de significancia</t>
+  </si>
+  <si>
+    <t>Nivel de Significancia</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>Columna5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: en esta serie de tiempo sobre la poblacion Inactiva observamos que </t>
+  </si>
+  <si>
+    <t>la variable de tipo Femenino sobre las mujeres esta por encima de la variable de tipo Masculino Hombres</t>
+  </si>
+  <si>
+    <t>Pues el valor promedio en mujeres es mas alto que el promedio de Hombres con respecto al tiempo t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Existe alguna diferencia en la variacion de los resultados obtenidos </t>
+  </si>
+  <si>
+    <t>del examen en los dos grupos ?</t>
+  </si>
+  <si>
+    <t>Hipotesis Nula</t>
+  </si>
+  <si>
+    <t>Hipotesis Alternativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Hipotesis nula nos dice claramente si la varianza de la muestra 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"H" es igual a la varianza de la muestra 2 "M" </t>
+  </si>
+  <si>
+    <t>y la Hipotesis alternativa nos dice si esque existen diferencias.</t>
+  </si>
+  <si>
+    <t>Prueba F para varianzas de dos muestras</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) una cola</t>
+  </si>
+  <si>
+    <t>Valor crítico para F (una cola)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2269,8 +2364,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2315,12 +2418,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2402,12 +2511,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2455,7 +2655,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2468,19 +2670,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,7 +2685,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2504,6 +2700,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2522,6 +2747,3903 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-US"/>
+              <a:t>Serie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-US" baseline="0"/>
+              <a:t> de Tiempo Poblacion Ocupada H y M </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$F$4:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>91427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>339512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107163</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39652</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F60-4E78-BE09-EE84F825049F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MUJER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$G$4:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>32543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23670</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19326</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F60-4E78-BE09-EE84F825049F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="880033664"/>
+        <c:axId val="880049056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="880033664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880049056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="880049056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880033664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-US"/>
+              <a:t>Serie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-US" baseline="0"/>
+              <a:t> de tiempo poblacion desocupada H y M</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$I$4:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC3C-4177-85D3-B4D5053E7FF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MUJER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$J$4:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC3C-4177-85D3-B4D5053E7FF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="935292848"/>
+        <c:axId val="935293680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="935292848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935293680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="935293680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935292848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-US"/>
+              <a:t>Serie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-US" baseline="0"/>
+              <a:t> de Tiempo Poblacion Inactiva H y M</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$L$4:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>90812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>309483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38880</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12583</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55966</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-513A-4EBD-8E17-9FD31C513488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MUJER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE DATOS 2013 POR DEPTO'!$M$4:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>166663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>551686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>171853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>523332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20824</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>129482</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>204578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>163224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69470</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>222030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-513A-4EBD-8E17-9FD31C513488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="994552736"/>
+        <c:axId val="879955792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="994552736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879955792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="879955792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="994552736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C0E991-DDD1-41F0-8010-DE0C55B198E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6CF293-936A-46D3-8C24-34DE7DE21011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152833A9-0868-4218-9EA1-BDF75AB690D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1476374</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="211981"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F18527-2DE9-40BB-A8E7-E0003079F60F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14182724" y="6281737"/>
+              <a:ext cx="771525" cy="211981"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-US" sz="1400" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐻</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>0</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="es-US" sz="1400" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>:</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="es-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-US" sz="1200" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="el-GR" sz="1200" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>σ</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-US" sz="1200" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="el-GR" sz="1200" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>σ</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="es-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F18527-2DE9-40BB-A8E7-E0003079F60F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14182724" y="6281737"/>
+              <a:ext cx="771525" cy="211981"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="es-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻_0:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152525" cy="211981"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="CuadroTexto 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C0FCAA-1DA2-4657-BA4F-BAC37242FCFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14220825" y="6667500"/>
+              <a:ext cx="1152525" cy="211981"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-US" sz="1400" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐻</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1400" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑎</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="es-US" sz="1400" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>:</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="es-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-US" sz="1200" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="el-GR" sz="1200" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>σ</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                  <m:r>
+                    <a:rPr lang="es-US" sz="1200" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="es-US" sz="1200" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>  </m:t>
+                  </m:r>
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-US" sz="1200" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr lang="el-GR" sz="1200" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>σ</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="es-US" sz="1200" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="es-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="CuadroTexto 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C0FCAA-1DA2-4657-BA4F-BAC37242FCFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14220825" y="6667500"/>
+              <a:ext cx="1152525" cy="211981"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="es-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻_𝑎:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>σ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6583364C-263F-4AE2-8EE4-80FE8D7FDAD5}" name="Tabla710" displayName="Tabla710" ref="O23:O31" totalsRowShown="0">
   <autoFilter ref="O23:O31" xr:uid="{6583364C-263F-4AE2-8EE4-80FE8D7FDAD5}"/>
@@ -2533,6 +6655,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{109506F4-9B7F-4E8D-B15C-17B1FC786A12}" name="Tabla2" displayName="Tabla2" ref="AT27:AX35" totalsRowShown="0">
+  <autoFilter ref="AT27:AX35" xr:uid="{109506F4-9B7F-4E8D-B15C-17B1FC786A12}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F6590811-75B8-4DC9-8A2D-4A4CA9F31574}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{3050B00D-62F6-4A27-8CA2-35E7AE837C4C}" name="Columna2"/>
+    <tableColumn id="3" xr3:uid="{FAC7057F-0D90-4DDF-B535-77202976DB9E}" name="Columna3"/>
+    <tableColumn id="4" xr3:uid="{9DA72753-C1EC-4C62-A549-7F4019D89485}" name="Columna4"/>
+    <tableColumn id="5" xr3:uid="{AE0F4548-1588-4B4E-AF72-D93923BEDB5C}" name="Columna5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3D1C2D3A-34AA-49DA-947F-5D492D71C4D7}" name="Tabla7" displayName="Tabla7" ref="O23:O31" totalsRowShown="0">
   <autoFilter ref="O23:O31" xr:uid="{3D1C2D3A-34AA-49DA-947F-5D492D71C4D7}"/>
   <tableColumns count="1">
@@ -2542,7 +6678,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A20DEAD-63B5-45D0-8488-E2CA23095689}" name="Tabla1" displayName="Tabla1" ref="D36:F44" totalsRowShown="0">
   <autoFilter ref="D36:F44" xr:uid="{7A20DEAD-63B5-45D0-8488-E2CA23095689}"/>
   <tableColumns count="3">
@@ -2554,7 +6690,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AFC5B4A-B1E0-476D-A1FF-6B3C44C4236E}" name="Tabla14" displayName="Tabla14" ref="C36:D44" totalsRowShown="0">
   <autoFilter ref="C36:D44" xr:uid="{6AFC5B4A-B1E0-476D-A1FF-6B3C44C4236E}"/>
   <tableColumns count="2">
@@ -2565,7 +6701,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C51BE993-D913-478A-958C-947D9D543867}" name="Tabla6" displayName="Tabla6" ref="E41:E44" totalsRowShown="0">
   <autoFilter ref="E41:E44" xr:uid="{C51BE993-D913-478A-958C-947D9D543867}"/>
   <tableColumns count="1">
@@ -2896,11 +7032,11 @@
       </c>
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
@@ -3191,11 +7327,11 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3569,11 +7705,11 @@
         <f t="shared" si="5"/>
         <v>874</v>
       </c>
-      <c r="W10" s="42" t="s">
+      <c r="W10" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -3935,11 +8071,11 @@
         <f t="shared" si="5"/>
         <v>1117</v>
       </c>
-      <c r="W15" s="42" t="s">
+      <c r="W15" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4313,11 +8449,11 @@
         <f t="shared" si="5"/>
         <v>3325</v>
       </c>
-      <c r="W20" s="42" t="s">
+      <c r="W20" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4608,11 +8744,11 @@
         <f t="shared" si="5"/>
         <v>696</v>
       </c>
-      <c r="W24" s="42" t="s">
+      <c r="W24" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4986,11 +9122,11 @@
         <f t="shared" si="5"/>
         <v>502</v>
       </c>
-      <c r="W29" s="42" t="s">
+      <c r="W29" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -5364,11 +9500,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W34" s="42" t="s">
+      <c r="W34" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -5742,11 +9878,11 @@
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="W39" s="42" t="s">
+      <c r="W39" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -6108,11 +10244,11 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="W44" s="42" t="s">
+      <c r="W44" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -6486,11 +10622,11 @@
         <f t="shared" si="5"/>
         <v>608</v>
       </c>
-      <c r="W49" s="42" t="s">
+      <c r="W49" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="42"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -6864,11 +11000,11 @@
         <f t="shared" si="5"/>
         <v>1725</v>
       </c>
-      <c r="W54" s="42" t="s">
+      <c r="W54" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="42"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -7242,11 +11378,11 @@
         <f t="shared" si="5"/>
         <v>712</v>
       </c>
-      <c r="W59" s="42" t="s">
+      <c r="W59" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -7620,11 +11756,11 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="W64" s="42" t="s">
+      <c r="W64" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -7986,11 +12122,11 @@
         <f t="shared" si="5"/>
         <v>45217</v>
       </c>
-      <c r="W69" s="42" t="s">
+      <c r="W69" s="37" t="s">
         <v>586</v>
       </c>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -8364,11 +12500,11 @@
         <f t="shared" si="15"/>
         <v>3591</v>
       </c>
-      <c r="W74" s="42" t="s">
+      <c r="W74" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="X74" s="42"/>
-      <c r="Y74" s="42"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -8742,11 +12878,11 @@
         <f t="shared" si="15"/>
         <v>11511</v>
       </c>
-      <c r="W79" s="42" t="s">
+      <c r="W79" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="X79" s="42"/>
-      <c r="Y79" s="42"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="37"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -9037,11 +13173,11 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="W83" s="42" t="s">
+      <c r="W83" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="X83" s="42"/>
-      <c r="Y83" s="42"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -47846,24 +51982,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="W79:Y79"/>
-    <mergeCell ref="W83:Y83"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="W20:Y20"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
@@ -47873,6 +51991,24 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="W79:Y79"/>
+    <mergeCell ref="W83:Y83"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W69:Y69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47880,10 +52016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9444513-4619-48E8-BA10-92D760C4D8A9}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:AX48"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="N28" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48:R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47899,22 +52035,31 @@
     <col min="16" max="16" width="28.140625" customWidth="1"/>
     <col min="17" max="17" width="19.85546875" customWidth="1"/>
     <col min="18" max="18" width="32.7109375" customWidth="1"/>
-    <col min="19" max="19" width="31" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" customWidth="1"/>
     <col min="20" max="20" width="21.28515625" customWidth="1"/>
     <col min="21" max="21" width="37" customWidth="1"/>
     <col min="22" max="22" width="31.42578125" customWidth="1"/>
     <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="29" max="29" width="26.28515625" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" customWidth="1"/>
+    <col min="31" max="31" width="35.42578125" customWidth="1"/>
+    <col min="32" max="32" width="23" customWidth="1"/>
+    <col min="41" max="41" width="26.7109375" customWidth="1"/>
+    <col min="42" max="42" width="16.140625" customWidth="1"/>
+    <col min="43" max="43" width="15" customWidth="1"/>
+    <col min="46" max="49" width="12" customWidth="1"/>
+    <col min="50" max="50" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -48722,7 +52867,7 @@
         <v>728</v>
       </c>
       <c r="U14" s="25" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -48828,7 +52973,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -48876,13 +53021,13 @@
       </c>
       <c r="P17" s="2"/>
       <c r="R17" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="U17" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="U17" s="25" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -48939,7 +53084,7 @@
         <v>11960837171.437908</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -48986,7 +53131,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -49032,7 +53177,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -49079,7 +53224,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>590</v>
       </c>
@@ -49134,62 +53279,490 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O23" t="s">
         <v>718</v>
       </c>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>734</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" t="s">
         <v>722</v>
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S25" s="55"/>
+      <c r="T25" s="55" t="s">
+        <v>735</v>
+      </c>
+      <c r="U25" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55" t="s">
+        <v>735</v>
+      </c>
+      <c r="AE25" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O26" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S26" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="T26" s="60">
+        <v>106700.33333333333</v>
+      </c>
+      <c r="U26" s="60">
+        <v>36419.722222222219</v>
+      </c>
+      <c r="AC26" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD26" s="60">
+        <v>2567.1666666666665</v>
+      </c>
+      <c r="AE26" s="60">
+        <v>870.16666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O27" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S27" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="T27" s="60">
+        <v>8341199911.5294113</v>
+      </c>
+      <c r="U27" s="60">
+        <v>2674158307.506536</v>
+      </c>
+      <c r="AC27" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD27" s="60">
+        <v>11972064.970588235</v>
+      </c>
+      <c r="AE27" s="60">
+        <v>2016339.205882353</v>
+      </c>
+      <c r="AO27" s="55"/>
+      <c r="AP27" s="55" t="s">
+        <v>735</v>
+      </c>
+      <c r="AQ27" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>750</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>714</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>715</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>751</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O28" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S28" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="T28" s="56">
+        <v>18</v>
+      </c>
+      <c r="U28" s="53">
+        <v>18</v>
+      </c>
+      <c r="AC28" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD28" s="56">
+        <v>18</v>
+      </c>
+      <c r="AE28" s="53">
+        <v>18</v>
+      </c>
+      <c r="AO28" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="AP28" s="60">
+        <v>88413.888888888891</v>
+      </c>
+      <c r="AQ28" s="60">
+        <v>172401.72222222222</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O29" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S29" s="53" t="s">
+        <v>740</v>
+      </c>
+      <c r="T29" s="56">
+        <v>0.96293033080378065</v>
+      </c>
+      <c r="U29" s="53"/>
+      <c r="AC29" s="53" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD29" s="56">
+        <v>0.99225618455312015</v>
+      </c>
+      <c r="AE29" s="53"/>
+      <c r="AO29" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="AP29" s="61">
+        <v>6823626422.9281044</v>
+      </c>
+      <c r="AQ29" s="61">
+        <v>21109206105.035946</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O30" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S30" s="53" t="s">
+        <v>741</v>
+      </c>
+      <c r="T30" s="56">
+        <v>0</v>
+      </c>
+      <c r="U30" s="53"/>
+      <c r="AC30" s="53" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD30" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="53"/>
+      <c r="AO30" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="AP30" s="56">
+        <v>18</v>
+      </c>
+      <c r="AQ30" s="53">
+        <v>18</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="O31" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O34" s="37" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O36" t="s">
-        <v>731</v>
-      </c>
+      <c r="S31" s="53" t="s">
+        <v>742</v>
+      </c>
+      <c r="T31" s="56">
+        <v>17</v>
+      </c>
+      <c r="U31" s="53"/>
+      <c r="AC31" s="53" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD31" s="56">
+        <v>17</v>
+      </c>
+      <c r="AE31" s="53"/>
+      <c r="AO31" s="53" t="s">
+        <v>740</v>
+      </c>
+      <c r="AP31" s="56">
+        <v>0.99659340049370382</v>
+      </c>
+      <c r="AQ31" s="53"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="S32" s="53" t="s">
+        <v>743</v>
+      </c>
+      <c r="T32" s="56">
+        <v>6.8053688171707609</v>
+      </c>
+      <c r="U32" s="53"/>
+      <c r="AC32" s="53" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD32" s="56">
+        <v>3.4973151358240853</v>
+      </c>
+      <c r="AE32" s="53"/>
+      <c r="AO32" s="53" t="s">
+        <v>741</v>
+      </c>
+      <c r="AP32" s="56">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="53"/>
+    </row>
+    <row r="33" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="S33" s="53" t="s">
+        <v>744</v>
+      </c>
+      <c r="T33" s="56">
+        <v>1.5320209316189114E-6</v>
+      </c>
+      <c r="U33" s="53"/>
+      <c r="AC33" s="53" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD33" s="56">
+        <v>1.3800323319118149E-3</v>
+      </c>
+      <c r="AE33" s="53"/>
+      <c r="AO33" s="53" t="s">
+        <v>742</v>
+      </c>
+      <c r="AP33" s="56">
+        <v>17</v>
+      </c>
+      <c r="AQ33" s="53"/>
+    </row>
+    <row r="34" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="J34" s="67" t="s">
+        <v>756</v>
+      </c>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="72" t="s">
+        <v>758</v>
+      </c>
+      <c r="S34" s="58" t="s">
+        <v>746</v>
+      </c>
+      <c r="T34" s="59">
+        <v>3.0640418632378229E-6</v>
+      </c>
+      <c r="U34" s="58"/>
+      <c r="V34" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC34" s="58" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD34" s="59">
+        <v>2.7600646638236298E-3</v>
+      </c>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="AO34" s="53" t="s">
+        <v>744</v>
+      </c>
+      <c r="AP34" s="56">
+        <v>1.5112408499941978E-5</v>
+      </c>
+      <c r="AQ34" s="53"/>
+    </row>
+    <row r="35" spans="10:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="70" t="s">
+        <v>757</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="71"/>
+      <c r="S35" s="54" t="s">
+        <v>747</v>
+      </c>
+      <c r="T35" s="57">
+        <v>2.109815577833317</v>
+      </c>
+      <c r="U35" s="54"/>
+      <c r="AC35" s="54" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD35" s="57">
+        <v>2.109815577833317</v>
+      </c>
+      <c r="AE35" s="54"/>
+      <c r="AO35" s="53" t="s">
+        <v>745</v>
+      </c>
+      <c r="AP35" s="56">
+        <v>1.7396067260750732</v>
+      </c>
+      <c r="AQ35" s="53"/>
+    </row>
+    <row r="36" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="J36" s="70"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="AO36" s="58" t="s">
+        <v>746</v>
+      </c>
+      <c r="AP36" s="59">
+        <v>3.0224816999883955E-5</v>
+      </c>
+      <c r="AQ36" s="58"/>
+      <c r="AR36" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="AS36" s="13"/>
+    </row>
+    <row r="37" spans="10:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="62" t="s">
+        <v>760</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="63"/>
+      <c r="AO37" s="54" t="s">
+        <v>747</v>
+      </c>
+      <c r="AP37" s="57">
+        <v>2.109815577833317</v>
+      </c>
+      <c r="AQ37" s="54"/>
+    </row>
+    <row r="38" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="J38" s="62" t="s">
+        <v>761</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="63"/>
+    </row>
+    <row r="39" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="J39" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="66"/>
+      <c r="P39" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="40" spans="10:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55" t="s">
+        <v>563</v>
+      </c>
+      <c r="R41" s="55" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="P42" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q42" s="60">
+        <v>106700.33333333333</v>
+      </c>
+      <c r="R42" s="60">
+        <v>36419.722222222219</v>
+      </c>
+    </row>
+    <row r="43" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="P43" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q43" s="60">
+        <v>8341199911.5294113</v>
+      </c>
+      <c r="R43" s="60">
+        <v>2674158307.506536</v>
+      </c>
+    </row>
+    <row r="44" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="P44" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q44" s="60">
+        <v>18</v>
+      </c>
+      <c r="R44" s="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="P45" s="53" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q45" s="60">
+        <v>17</v>
+      </c>
+      <c r="R45" s="60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="P46" s="73" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q46" s="74">
+        <v>3.1191870309678831</v>
+      </c>
+      <c r="R46" s="73"/>
+    </row>
+    <row r="47" spans="10:45" x14ac:dyDescent="0.25">
+      <c r="P47" s="53" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q47" s="60">
+        <v>1.2108040097253579E-2</v>
+      </c>
+      <c r="R47" s="53"/>
+    </row>
+    <row r="48" spans="10:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P48" s="75" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q48" s="76">
+        <v>2.2718928890253789</v>
+      </c>
+      <c r="R48" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -49200,8 +53773,11 @@
     <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -49235,39 +53811,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42" t="s">
         <v>568</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>569</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="28" t="s">
         <v>676</v>
       </c>
@@ -50199,10 +54775,10 @@
         <v>717</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -50512,7 +55088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2178D-C3AD-4559-BBBE-C65524D756B6}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+    <sheetView topLeftCell="B24" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -50528,8 +55104,8 @@
       <c r="A1" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -50537,9 +55113,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -50595,10 +55171,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="45" t="s">
         <v>611</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="1"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -50624,48 +55200,48 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>624</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
@@ -50677,30 +55253,30 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
       <c r="C18" s="2">
         <v>2638033</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="12">
         <f>C23+C25</f>
         <v>2638033</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="2">
         <v>7332714</v>
       </c>
@@ -50737,12 +55313,12 @@
         <v>4694681</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="48" t="s">
         <v>618</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
@@ -50769,21 +55345,21 @@
       <c r="C25" s="2">
         <v>61872</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="48" t="s">
         <v>621</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="37" t="s">
         <v>632</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
       <c r="I27" s="13" t="s">
         <v>622</v>
       </c>
@@ -50800,10 +55376,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="37" t="s">
         <v>627</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="37"/>
       <c r="E28" t="s">
         <v>629</v>
       </c>
@@ -50818,13 +55394,13 @@
       <c r="B29">
         <v>10</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="37" t="s">
         <v>633</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
@@ -50842,15 +55418,15 @@
         <f>(G28/B29)*B30</f>
         <v>1500000</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="37" t="s">
         <v>631</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="I31" s="42" t="s">
+      <c r="G31" s="37"/>
+      <c r="I31" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
@@ -50953,23 +55529,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -51004,12 +55580,12 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="44" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -51017,24 +55593,24 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9"/>
@@ -51043,10 +55619,10 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -51056,10 +55632,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>594</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -51069,10 +55645,10 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>595</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
         <v>646</v>
@@ -51084,10 +55660,10 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="50" t="s">
         <v>596</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="7" t="s">
         <v>609</v>
       </c>
@@ -51099,10 +55675,10 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="45" t="s">
         <v>610</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="31" t="s">
         <v>611</v>
       </c>
@@ -51114,10 +55690,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="50" t="s">
         <v>599</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -51127,10 +55703,10 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>600</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -51144,66 +55720,66 @@
         <v>601</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>602</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="47" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>603</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>625</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49" t="s">
         <v>624</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="L16" s="45" t="s">
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="L16" s="48" t="s">
         <v>696</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
@@ -51229,10 +55805,10 @@
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="52" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="4">
         <f>E21+E23</f>
         <v>1886435</v>
@@ -51246,12 +55822,12 @@
         <f>F19+E25</f>
         <v>4848916</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="48" t="s">
         <v>698</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -51475,17 +56051,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L20:O20"/>
@@ -51495,6 +56060,17 @@
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Base de datos Python/base_datos_empleo.xlsx
+++ b/Base de datos Python/base_datos_empleo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\Base de datos Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F22A31-D660-454E-85E6-BFA9E0B11824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BEC2F0-1AA8-4BAD-9697-BA7EA3B3B85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="831">
   <si>
     <t>Año</t>
   </si>
@@ -2511,6 +2511,18 @@
   </si>
   <si>
     <t xml:space="preserve">Calculo Ruido Blanco Poblacion Ocupados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusion de laPrueba t-Students Poblacion Ocupada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">como la P(T&lt;=t)=0.000002&lt;0.05 y observamos que el </t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio de Hombres ocupados fue mayor que el </t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio de mujeres ocupadas </t>
   </si>
 </sst>
 </file>
@@ -2964,9 +2976,6 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2979,10 +2988,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2997,22 +3018,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -16953,55 +16965,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>540</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="84" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="83" t="s">
         <v>544</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="84" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="83" t="s">
         <v>545</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="84" t="s">
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="83" t="s">
         <v>546</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="84" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="83" t="s">
         <v>547</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="84" t="s">
+      <c r="Q1" s="83"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="T1" s="84"/>
-      <c r="U1" s="85"/>
-      <c r="W1" s="83" t="s">
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="W1" s="87" t="s">
         <v>591</v>
       </c>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="1" t="s">
         <v>541</v>
       </c>
@@ -17287,11 +17299,11 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="W5" s="83" t="s">
+      <c r="W5" s="87" t="s">
         <v>573</v>
       </c>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -17665,11 +17677,11 @@
         <f t="shared" si="5"/>
         <v>874</v>
       </c>
-      <c r="W10" s="83" t="s">
+      <c r="W10" s="87" t="s">
         <v>574</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -18031,11 +18043,11 @@
         <f t="shared" si="5"/>
         <v>1117</v>
       </c>
-      <c r="W15" s="83" t="s">
+      <c r="W15" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -18409,11 +18421,11 @@
         <f t="shared" si="5"/>
         <v>3325</v>
       </c>
-      <c r="W20" s="83" t="s">
+      <c r="W20" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -18704,11 +18716,11 @@
         <f t="shared" si="5"/>
         <v>696</v>
       </c>
-      <c r="W24" s="83" t="s">
+      <c r="W24" s="87" t="s">
         <v>577</v>
       </c>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -19082,11 +19094,11 @@
         <f t="shared" si="5"/>
         <v>502</v>
       </c>
-      <c r="W29" s="83" t="s">
+      <c r="W29" s="87" t="s">
         <v>578</v>
       </c>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -19460,11 +19472,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W34" s="83" t="s">
+      <c r="W34" s="87" t="s">
         <v>579</v>
       </c>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -19838,11 +19850,11 @@
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="W39" s="83" t="s">
+      <c r="W39" s="87" t="s">
         <v>580</v>
       </c>
-      <c r="X39" s="83"/>
-      <c r="Y39" s="83"/>
+      <c r="X39" s="87"/>
+      <c r="Y39" s="87"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -20204,11 +20216,11 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="W44" s="83" t="s">
+      <c r="W44" s="87" t="s">
         <v>581</v>
       </c>
-      <c r="X44" s="83"/>
-      <c r="Y44" s="83"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -20582,11 +20594,11 @@
         <f t="shared" si="5"/>
         <v>608</v>
       </c>
-      <c r="W49" s="83" t="s">
+      <c r="W49" s="87" t="s">
         <v>582</v>
       </c>
-      <c r="X49" s="83"/>
-      <c r="Y49" s="83"/>
+      <c r="X49" s="87"/>
+      <c r="Y49" s="87"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -20960,11 +20972,11 @@
         <f t="shared" si="5"/>
         <v>1725</v>
       </c>
-      <c r="W54" s="83" t="s">
+      <c r="W54" s="87" t="s">
         <v>583</v>
       </c>
-      <c r="X54" s="83"/>
-      <c r="Y54" s="83"/>
+      <c r="X54" s="87"/>
+      <c r="Y54" s="87"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -21338,11 +21350,11 @@
         <f t="shared" si="5"/>
         <v>712</v>
       </c>
-      <c r="W59" s="83" t="s">
+      <c r="W59" s="87" t="s">
         <v>584</v>
       </c>
-      <c r="X59" s="83"/>
-      <c r="Y59" s="83"/>
+      <c r="X59" s="87"/>
+      <c r="Y59" s="87"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -21716,11 +21728,11 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="W64" s="83" t="s">
+      <c r="W64" s="87" t="s">
         <v>585</v>
       </c>
-      <c r="X64" s="83"/>
-      <c r="Y64" s="83"/>
+      <c r="X64" s="87"/>
+      <c r="Y64" s="87"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -22082,11 +22094,11 @@
         <f t="shared" si="5"/>
         <v>45217</v>
       </c>
-      <c r="W69" s="83" t="s">
+      <c r="W69" s="87" t="s">
         <v>586</v>
       </c>
-      <c r="X69" s="83"/>
-      <c r="Y69" s="83"/>
+      <c r="X69" s="87"/>
+      <c r="Y69" s="87"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -22460,11 +22472,11 @@
         <f t="shared" si="15"/>
         <v>3591</v>
       </c>
-      <c r="W74" s="83" t="s">
+      <c r="W74" s="87" t="s">
         <v>587</v>
       </c>
-      <c r="X74" s="83"/>
-      <c r="Y74" s="83"/>
+      <c r="X74" s="87"/>
+      <c r="Y74" s="87"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -22838,11 +22850,11 @@
         <f t="shared" si="15"/>
         <v>11511</v>
       </c>
-      <c r="W79" s="83" t="s">
+      <c r="W79" s="87" t="s">
         <v>588</v>
       </c>
-      <c r="X79" s="83"/>
-      <c r="Y79" s="83"/>
+      <c r="X79" s="87"/>
+      <c r="Y79" s="87"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -23133,11 +23145,11 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="W83" s="83" t="s">
+      <c r="W83" s="87" t="s">
         <v>589</v>
       </c>
-      <c r="X83" s="83"/>
-      <c r="Y83" s="83"/>
+      <c r="X83" s="87"/>
+      <c r="Y83" s="87"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -61942,6 +61954,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="W79:Y79"/>
+    <mergeCell ref="W83:Y83"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="W20:Y20"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
@@ -61951,24 +61981,6 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="W79:Y79"/>
-    <mergeCell ref="W83:Y83"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W69:Y69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61978,8 +61990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9444513-4619-48E8-BA10-92D760C4D8A9}">
   <dimension ref="A1:AX62"/>
   <sheetViews>
-    <sheetView topLeftCell="I18" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="Q20" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62015,39 +62027,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>540</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="84" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="83" t="s">
         <v>544</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="84" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="83" t="s">
         <v>545</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="83" t="s">
         <v>546</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="19" t="s">
         <v>651</v>
       </c>
@@ -64197,8 +64209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85591A2D-7069-40DB-9539-955946B74862}">
   <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="N44" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64215,7 +64227,7 @@
     <col min="13" max="13" width="22.28515625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="52" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" customWidth="1"/>
+    <col min="16" max="16" width="49.42578125" customWidth="1"/>
     <col min="17" max="17" width="22.85546875" customWidth="1"/>
     <col min="18" max="18" width="44.85546875" customWidth="1"/>
     <col min="19" max="19" width="35.140625" customWidth="1"/>
@@ -64244,14 +64256,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -66217,6 +66229,9 @@
       <c r="AD49" s="58"/>
     </row>
     <row r="52" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>827</v>
+      </c>
       <c r="T52" s="50" t="s">
         <v>753</v>
       </c>
@@ -66241,6 +66256,9 @@
       <c r="AH52" s="79"/>
     </row>
     <row r="53" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>828</v>
+      </c>
       <c r="T53" s="53" t="s">
         <v>779</v>
       </c>
@@ -66257,6 +66275,9 @@
       <c r="AF53" s="54"/>
     </row>
     <row r="54" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>829</v>
+      </c>
       <c r="T54" s="53"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
@@ -66277,6 +66298,9 @@
       <c r="AH54" s="28"/>
     </row>
     <row r="55" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>830</v>
+      </c>
       <c r="T55" s="45" t="s">
         <v>756</v>
       </c>
@@ -66598,8 +66622,8 @@
       <c r="A1" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -66607,9 +66631,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -66665,10 +66689,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="95" t="s">
         <v>611</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="1"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -66694,48 +66718,48 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="93" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="93" t="s">
         <v>604</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="93" t="s">
         <v>606</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="92" t="s">
         <v>624</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
@@ -66747,30 +66771,30 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="91" t="s">
         <v>616</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
       <c r="C18" s="2">
         <v>2638033</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="90" t="s">
         <v>614</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="12">
         <f>C23+C25</f>
         <v>2638033</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="2">
         <v>7332714</v>
       </c>
@@ -66807,12 +66831,12 @@
         <v>4694681</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="I21" s="95" t="s">
+      <c r="I21" s="91" t="s">
         <v>618</v>
       </c>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
@@ -66839,21 +66863,21 @@
       <c r="C25" s="2">
         <v>61872</v>
       </c>
-      <c r="I25" s="95" t="s">
+      <c r="I25" s="91" t="s">
         <v>621</v>
       </c>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="87" t="s">
         <v>632</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="I27" s="13" t="s">
         <v>622</v>
       </c>
@@ -66870,10 +66894,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="87" t="s">
         <v>627</v>
       </c>
-      <c r="D28" s="83"/>
+      <c r="D28" s="87"/>
       <c r="E28" t="s">
         <v>629</v>
       </c>
@@ -66888,13 +66912,13 @@
       <c r="B29">
         <v>10</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="87" t="s">
         <v>633</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
@@ -66912,15 +66936,15 @@
         <f>(G28/B29)*B30</f>
         <v>1500000</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="87" t="s">
         <v>631</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="I31" s="83" t="s">
+      <c r="G31" s="87"/>
+      <c r="I31" s="87" t="s">
         <v>643</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
@@ -67023,23 +67047,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -67074,12 +67098,12 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="94" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -67087,24 +67111,24 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="94" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="98" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9"/>
@@ -67113,10 +67137,10 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="98" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -67126,10 +67150,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="98" t="s">
         <v>594</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -67139,10 +67163,10 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="98" t="s">
         <v>595</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
         <v>646</v>
@@ -67154,10 +67178,10 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="98" t="s">
         <v>596</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="7" t="s">
         <v>609</v>
       </c>
@@ -67169,10 +67193,10 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="95" t="s">
         <v>610</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="31" t="s">
         <v>611</v>
       </c>
@@ -67184,10 +67208,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="98" t="s">
         <v>599</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -67197,10 +67221,10 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="99" t="s">
         <v>600</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -67214,66 +67238,66 @@
         <v>601</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="93" t="s">
         <v>605</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="90" t="s">
+      <c r="C14" s="98"/>
+      <c r="D14" s="93" t="s">
         <v>604</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="98" t="s">
         <v>603</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="90" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="93" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="92" t="s">
         <v>625</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96" t="s">
+      <c r="C16" s="92"/>
+      <c r="D16" s="92" t="s">
         <v>624</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="L16" s="95" t="s">
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="L16" s="91" t="s">
         <v>696</v>
       </c>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
@@ -67299,10 +67323,10 @@
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="97" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="4">
         <f>E21+E23</f>
         <v>1886435</v>
@@ -67316,12 +67340,12 @@
         <f>F19+E25</f>
         <v>4848916</v>
       </c>
-      <c r="L20" s="95" t="s">
+      <c r="L20" s="91" t="s">
         <v>698</v>
       </c>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -67545,6 +67569,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L20:O20"/>
@@ -67554,17 +67589,6 @@
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:J16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Base de datos Python/base_datos_empleo.xlsx
+++ b/Base de datos Python/base_datos_empleo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\Base de datos Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BEC2F0-1AA8-4BAD-9697-BA7EA3B3B85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1860843-1B4B-4D91-A072-169BF5DA3761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="847">
   <si>
     <t>Año</t>
   </si>
@@ -2513,16 +2513,64 @@
     <t xml:space="preserve">Calculo Ruido Blanco Poblacion Ocupados </t>
   </si>
   <si>
-    <t xml:space="preserve">Conclusion de laPrueba t-Students Poblacion Ocupada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">como la P(T&lt;=t)=0.000002&lt;0.05 y observamos que el </t>
-  </si>
-  <si>
-    <t xml:space="preserve">promedio de Hombres ocupados fue mayor que el </t>
-  </si>
-  <si>
-    <t xml:space="preserve">promedio de mujeres ocupadas </t>
+    <t xml:space="preserve">Conclusion Prueba t Poblacion Ocupada </t>
+  </si>
+  <si>
+    <t>con la prueba t observamos que el nivel de significancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(T&lt;=t)=0.000002&lt;0.05 por lo que si hay diferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">en comparacion con el promedio de mujeres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ya que el Promedio de Hombres Ocupados fue mas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alto que el promedio en las Mujeres </t>
+  </si>
+  <si>
+    <t>Con la prueba t observamos que el nivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de significancia P(T&lt;=t)=0.000003&lt;0.05 por </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo que si hay diferencia significativa con </t>
+  </si>
+  <si>
+    <t xml:space="preserve">respecto al promedio de Hombres en </t>
+  </si>
+  <si>
+    <t xml:space="preserve">comparacion con el promedio de mujeres que </t>
+  </si>
+  <si>
+    <t xml:space="preserve">estuvieron ocupadas en el año 2013 ya que el promedio </t>
+  </si>
+  <si>
+    <t>de Hombres ocupados fue mas alto que el promedio</t>
+  </si>
+  <si>
+    <t>en las mujeres.</t>
+  </si>
+  <si>
+    <t>significativa con respecto al promedio de Hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que estuvieron ocupadas en el año 2001 </t>
+  </si>
+  <si>
+    <t>Promedio H= 77,596.39</t>
+  </si>
+  <si>
+    <t>Promedio M= 25,001.89</t>
+  </si>
+  <si>
+    <t>Promedio H = 106,700.33</t>
+  </si>
+  <si>
+    <t>Promedio M = 36,419.72</t>
   </si>
 </sst>
 </file>
@@ -2976,6 +3024,9 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2988,22 +3039,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3018,13 +3057,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -16965,55 +17013,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>540</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="83" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="84" t="s">
         <v>544</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="83" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="84" t="s">
         <v>545</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="83" t="s">
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="84" t="s">
         <v>546</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="83" t="s">
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="83" t="s">
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
-      <c r="W1" s="87" t="s">
+      <c r="T1" s="84"/>
+      <c r="U1" s="85"/>
+      <c r="W1" s="83" t="s">
         <v>591</v>
       </c>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="1" t="s">
         <v>541</v>
       </c>
@@ -17299,11 +17347,11 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="W5" s="87" t="s">
+      <c r="W5" s="83" t="s">
         <v>573</v>
       </c>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -17677,11 +17725,11 @@
         <f t="shared" si="5"/>
         <v>874</v>
       </c>
-      <c r="W10" s="87" t="s">
+      <c r="W10" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -18043,11 +18091,11 @@
         <f t="shared" si="5"/>
         <v>1117</v>
       </c>
-      <c r="W15" s="87" t="s">
+      <c r="W15" s="83" t="s">
         <v>575</v>
       </c>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -18421,11 +18469,11 @@
         <f t="shared" si="5"/>
         <v>3325</v>
       </c>
-      <c r="W20" s="87" t="s">
+      <c r="W20" s="83" t="s">
         <v>576</v>
       </c>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -18716,11 +18764,11 @@
         <f t="shared" si="5"/>
         <v>696</v>
       </c>
-      <c r="W24" s="87" t="s">
+      <c r="W24" s="83" t="s">
         <v>577</v>
       </c>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -19094,11 +19142,11 @@
         <f t="shared" si="5"/>
         <v>502</v>
       </c>
-      <c r="W29" s="87" t="s">
+      <c r="W29" s="83" t="s">
         <v>578</v>
       </c>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -19472,11 +19520,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W34" s="87" t="s">
+      <c r="W34" s="83" t="s">
         <v>579</v>
       </c>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -19850,11 +19898,11 @@
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="W39" s="87" t="s">
+      <c r="W39" s="83" t="s">
         <v>580</v>
       </c>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="83"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -20216,11 +20264,11 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="W44" s="87" t="s">
+      <c r="W44" s="83" t="s">
         <v>581</v>
       </c>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="87"/>
+      <c r="X44" s="83"/>
+      <c r="Y44" s="83"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -20594,11 +20642,11 @@
         <f t="shared" si="5"/>
         <v>608</v>
       </c>
-      <c r="W49" s="87" t="s">
+      <c r="W49" s="83" t="s">
         <v>582</v>
       </c>
-      <c r="X49" s="87"/>
-      <c r="Y49" s="87"/>
+      <c r="X49" s="83"/>
+      <c r="Y49" s="83"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -20972,11 +21020,11 @@
         <f t="shared" si="5"/>
         <v>1725</v>
       </c>
-      <c r="W54" s="87" t="s">
+      <c r="W54" s="83" t="s">
         <v>583</v>
       </c>
-      <c r="X54" s="87"/>
-      <c r="Y54" s="87"/>
+      <c r="X54" s="83"/>
+      <c r="Y54" s="83"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -21350,11 +21398,11 @@
         <f t="shared" si="5"/>
         <v>712</v>
       </c>
-      <c r="W59" s="87" t="s">
+      <c r="W59" s="83" t="s">
         <v>584</v>
       </c>
-      <c r="X59" s="87"/>
-      <c r="Y59" s="87"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="83"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -21728,11 +21776,11 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="W64" s="87" t="s">
+      <c r="W64" s="83" t="s">
         <v>585</v>
       </c>
-      <c r="X64" s="87"/>
-      <c r="Y64" s="87"/>
+      <c r="X64" s="83"/>
+      <c r="Y64" s="83"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -22094,11 +22142,11 @@
         <f t="shared" si="5"/>
         <v>45217</v>
       </c>
-      <c r="W69" s="87" t="s">
+      <c r="W69" s="83" t="s">
         <v>586</v>
       </c>
-      <c r="X69" s="87"/>
-      <c r="Y69" s="87"/>
+      <c r="X69" s="83"/>
+      <c r="Y69" s="83"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -22472,11 +22520,11 @@
         <f t="shared" si="15"/>
         <v>3591</v>
       </c>
-      <c r="W74" s="87" t="s">
+      <c r="W74" s="83" t="s">
         <v>587</v>
       </c>
-      <c r="X74" s="87"/>
-      <c r="Y74" s="87"/>
+      <c r="X74" s="83"/>
+      <c r="Y74" s="83"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -22850,11 +22898,11 @@
         <f t="shared" si="15"/>
         <v>11511</v>
       </c>
-      <c r="W79" s="87" t="s">
+      <c r="W79" s="83" t="s">
         <v>588</v>
       </c>
-      <c r="X79" s="87"/>
-      <c r="Y79" s="87"/>
+      <c r="X79" s="83"/>
+      <c r="Y79" s="83"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -23145,11 +23193,11 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="W83" s="87" t="s">
+      <c r="W83" s="83" t="s">
         <v>589</v>
       </c>
-      <c r="X83" s="87"/>
-      <c r="Y83" s="87"/>
+      <c r="X83" s="83"/>
+      <c r="Y83" s="83"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -61954,24 +62002,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="W79:Y79"/>
-    <mergeCell ref="W83:Y83"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="W20:Y20"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
@@ -61981,6 +62011,24 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="W79:Y79"/>
+    <mergeCell ref="W83:Y83"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W69:Y69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61988,10 +62036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9444513-4619-48E8-BA10-92D760C4D8A9}">
-  <dimension ref="A1:AX62"/>
+  <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView topLeftCell="Q20" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="N48" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62004,7 +62052,7 @@
     <col min="9" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="57.85546875" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" customWidth="1"/>
+    <col min="16" max="16" width="50.85546875" customWidth="1"/>
     <col min="17" max="17" width="19.85546875" customWidth="1"/>
     <col min="18" max="18" width="32.7109375" customWidth="1"/>
     <col min="19" max="19" width="36.28515625" customWidth="1"/>
@@ -62027,39 +62075,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="83" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="87" t="s">
         <v>540</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="83" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="84" t="s">
         <v>544</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="83" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="84" t="s">
         <v>545</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="83" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="84" t="s">
         <v>546</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="19" t="s">
         <v>651</v>
       </c>
@@ -64068,6 +64116,9 @@
       <c r="AG53" s="46"/>
     </row>
     <row r="54" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P54" s="13" t="s">
+        <v>827</v>
+      </c>
       <c r="T54" s="45" t="s">
         <v>757</v>
       </c>
@@ -64084,6 +64135,9 @@
       <c r="AG54" s="46"/>
     </row>
     <row r="55" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>833</v>
+      </c>
       <c r="T55" s="47" t="s">
         <v>758</v>
       </c>
@@ -64099,7 +64153,20 @@
       <c r="AF55" s="48"/>
       <c r="AG55" s="49"/>
     </row>
+    <row r="56" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="57" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>835</v>
+      </c>
+    </row>
     <row r="58" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>836</v>
+      </c>
       <c r="T58" s="60" t="s">
         <v>780</v>
       </c>
@@ -64118,6 +64185,9 @@
       <c r="AH58" s="60"/>
     </row>
     <row r="59" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>837</v>
+      </c>
       <c r="T59" s="60" t="s">
         <v>763</v>
       </c>
@@ -64136,6 +64206,9 @@
       <c r="AH59" s="60"/>
     </row>
     <row r="60" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>838</v>
+      </c>
       <c r="T60" s="60" t="s">
         <v>781</v>
       </c>
@@ -64154,6 +64227,9 @@
       <c r="AH60" s="60"/>
     </row>
     <row r="61" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>839</v>
+      </c>
       <c r="T61" s="60" t="s">
         <v>783</v>
       </c>
@@ -64172,6 +64248,9 @@
       <c r="AH61" s="60"/>
     </row>
     <row r="62" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>840</v>
+      </c>
       <c r="T62" s="60"/>
       <c r="U62" s="60"/>
       <c r="V62" s="60"/>
@@ -64186,6 +64265,16 @@
       <c r="AF62" s="60"/>
       <c r="AG62" s="60"/>
       <c r="AH62" s="60"/>
+    </row>
+    <row r="63" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P63" s="82" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="64" spans="10:34" x14ac:dyDescent="0.25">
+      <c r="P64" s="82" t="s">
+        <v>846</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -64209,8 +64298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85591A2D-7069-40DB-9539-955946B74862}">
   <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N44" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="L44" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52:P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64256,14 +64345,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="83" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -66229,7 +66318,7 @@
       <c r="AD49" s="58"/>
     </row>
     <row r="52" spans="16:34" x14ac:dyDescent="0.25">
-      <c r="P52" t="s">
+      <c r="P52" s="13" t="s">
         <v>827</v>
       </c>
       <c r="T52" s="50" t="s">
@@ -66299,7 +66388,7 @@
     </row>
     <row r="55" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P55" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="T55" s="45" t="s">
         <v>756</v>
@@ -66317,6 +66406,9 @@
       <c r="AF55" s="46"/>
     </row>
     <row r="56" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>830</v>
+      </c>
       <c r="T56" s="45" t="s">
         <v>757</v>
       </c>
@@ -66333,6 +66425,9 @@
       <c r="AF56" s="46"/>
     </row>
     <row r="57" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>842</v>
+      </c>
       <c r="T57" s="47" t="s">
         <v>758</v>
       </c>
@@ -66348,7 +66443,20 @@
       <c r="AE57" s="48"/>
       <c r="AF57" s="49"/>
     </row>
+    <row r="58" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="59" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>832</v>
+      </c>
+    </row>
     <row r="60" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P60" s="82" t="s">
+        <v>843</v>
+      </c>
       <c r="T60" s="60" t="s">
         <v>795</v>
       </c>
@@ -66367,6 +66475,9 @@
       <c r="AG60" s="60"/>
     </row>
     <row r="61" spans="16:34" x14ac:dyDescent="0.25">
+      <c r="P61" s="82" t="s">
+        <v>844</v>
+      </c>
       <c r="T61" s="60" t="s">
         <v>763</v>
       </c>
@@ -66622,8 +66733,8 @@
       <c r="A1" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -66631,9 +66742,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -66689,10 +66800,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="92" t="s">
         <v>611</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="1"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -66718,48 +66829,48 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="90" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="90" t="s">
         <v>604</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="90" t="s">
         <v>606</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="96" t="s">
         <v>624</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
@@ -66771,30 +66882,30 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="91" t="s">
+      <c r="I17" s="95" t="s">
         <v>616</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
       <c r="C18" s="2">
         <v>2638033</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="94" t="s">
         <v>614</v>
       </c>
-      <c r="F18" s="90"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="12">
         <f>C23+C25</f>
         <v>2638033</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="2">
         <v>7332714</v>
       </c>
@@ -66831,12 +66942,12 @@
         <v>4694681</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="I21" s="91" t="s">
+      <c r="I21" s="95" t="s">
         <v>618</v>
       </c>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
@@ -66863,21 +66974,21 @@
       <c r="C25" s="2">
         <v>61872</v>
       </c>
-      <c r="I25" s="91" t="s">
+      <c r="I25" s="95" t="s">
         <v>621</v>
       </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="83" t="s">
         <v>632</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
       <c r="I27" s="13" t="s">
         <v>622</v>
       </c>
@@ -66894,10 +67005,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="83" t="s">
         <v>627</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="83"/>
       <c r="E28" t="s">
         <v>629</v>
       </c>
@@ -66912,13 +67023,13 @@
       <c r="B29">
         <v>10</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="83" t="s">
         <v>633</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
@@ -66936,15 +67047,15 @@
         <f>(G28/B29)*B30</f>
         <v>1500000</v>
       </c>
-      <c r="F31" s="87" t="s">
+      <c r="F31" s="83" t="s">
         <v>631</v>
       </c>
-      <c r="G31" s="87"/>
-      <c r="I31" s="87" t="s">
+      <c r="G31" s="83"/>
+      <c r="I31" s="83" t="s">
         <v>643</v>
       </c>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
@@ -67047,23 +67158,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -67098,12 +67209,12 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="91" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -67111,24 +67222,24 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="91" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="97" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9"/>
@@ -67137,10 +67248,10 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="97" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -67150,10 +67261,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>594</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -67163,10 +67274,10 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="97" t="s">
         <v>595</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
         <v>646</v>
@@ -67178,10 +67289,10 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>596</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="7" t="s">
         <v>609</v>
       </c>
@@ -67193,10 +67304,10 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="92" t="s">
         <v>610</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="31" t="s">
         <v>611</v>
       </c>
@@ -67208,10 +67319,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>599</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -67221,10 +67332,10 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>600</v>
       </c>
-      <c r="C12" s="99"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -67238,66 +67349,66 @@
         <v>601</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="90" t="s">
         <v>605</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="93" t="s">
+      <c r="C14" s="97"/>
+      <c r="D14" s="90" t="s">
         <v>604</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="97" t="s">
         <v>603</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="93" t="s">
+      <c r="C15" s="97"/>
+      <c r="D15" s="90" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="96" t="s">
         <v>624</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="L16" s="91" t="s">
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="L16" s="95" t="s">
         <v>696</v>
       </c>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
@@ -67323,10 +67434,10 @@
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="99" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="4">
         <f>E21+E23</f>
         <v>1886435</v>
@@ -67340,12 +67451,12 @@
         <f>F19+E25</f>
         <v>4848916</v>
       </c>
-      <c r="L20" s="91" t="s">
+      <c r="L20" s="95" t="s">
         <v>698</v>
       </c>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -67569,17 +67680,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L20:O20"/>
@@ -67589,6 +67689,17 @@
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Base de datos Python/base_datos_empleo.xlsx
+++ b/Base de datos Python/base_datos_empleo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\Base de datos Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1860843-1B4B-4D91-A072-169BF5DA3761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B5BAC-796B-4A72-9EA8-EBCCE8F7D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS 2001 Y 2013 MUNIC" sheetId="1" r:id="rId1"/>
@@ -62038,8 +62038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9444513-4619-48E8-BA10-92D760C4D8A9}">
   <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView topLeftCell="N48" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64298,8 +64298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85591A2D-7069-40DB-9539-955946B74862}">
   <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L44" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52:P61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Base de datos Python/base_datos_empleo.xlsx
+++ b/Base de datos Python/base_datos_empleo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\Base de datos Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B5BAC-796B-4A72-9EA8-EBCCE8F7D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B90E6-02FB-4AF6-A3B4-63890520D9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="SOLUCION PROBLEMA 2013" sheetId="4" r:id="rId5"/>
     <sheet name="SOLUCION PROBLEMA 2001" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62039,7 +62039,7 @@
   <dimension ref="A1:AX64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64299,7 +64299,7 @@
   <dimension ref="A1:AX64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66717,7 +66717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2178D-C3AD-4559-BBBE-C65524D756B6}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>

--- a/Base de datos Python/base_datos_empleo.xlsx
+++ b/Base de datos Python/base_datos_empleo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\Base de datos Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B90E6-02FB-4AF6-A3B4-63890520D9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC72EE-12D7-4466-9117-07C0FC313529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS 2001 Y 2013 MUNIC" sheetId="1" r:id="rId1"/>
@@ -3024,9 +3024,6 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3039,10 +3036,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3057,22 +3066,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17013,55 +17013,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>540</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="84" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="83" t="s">
         <v>544</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="84" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="83" t="s">
         <v>545</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="84" t="s">
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="83" t="s">
         <v>546</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="84" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="83" t="s">
         <v>547</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="84" t="s">
+      <c r="Q1" s="83"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="T1" s="84"/>
-      <c r="U1" s="85"/>
-      <c r="W1" s="83" t="s">
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="W1" s="87" t="s">
         <v>591</v>
       </c>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="1" t="s">
         <v>541</v>
       </c>
@@ -17347,11 +17347,11 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="W5" s="83" t="s">
+      <c r="W5" s="87" t="s">
         <v>573</v>
       </c>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -17725,11 +17725,11 @@
         <f t="shared" si="5"/>
         <v>874</v>
       </c>
-      <c r="W10" s="83" t="s">
+      <c r="W10" s="87" t="s">
         <v>574</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -18091,11 +18091,11 @@
         <f t="shared" si="5"/>
         <v>1117</v>
       </c>
-      <c r="W15" s="83" t="s">
+      <c r="W15" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -18469,11 +18469,11 @@
         <f t="shared" si="5"/>
         <v>3325</v>
       </c>
-      <c r="W20" s="83" t="s">
+      <c r="W20" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -18764,11 +18764,11 @@
         <f t="shared" si="5"/>
         <v>696</v>
       </c>
-      <c r="W24" s="83" t="s">
+      <c r="W24" s="87" t="s">
         <v>577</v>
       </c>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -19142,11 +19142,11 @@
         <f t="shared" si="5"/>
         <v>502</v>
       </c>
-      <c r="W29" s="83" t="s">
+      <c r="W29" s="87" t="s">
         <v>578</v>
       </c>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -19520,11 +19520,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W34" s="83" t="s">
+      <c r="W34" s="87" t="s">
         <v>579</v>
       </c>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -19898,11 +19898,11 @@
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="W39" s="83" t="s">
+      <c r="W39" s="87" t="s">
         <v>580</v>
       </c>
-      <c r="X39" s="83"/>
-      <c r="Y39" s="83"/>
+      <c r="X39" s="87"/>
+      <c r="Y39" s="87"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -20264,11 +20264,11 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="W44" s="83" t="s">
+      <c r="W44" s="87" t="s">
         <v>581</v>
       </c>
-      <c r="X44" s="83"/>
-      <c r="Y44" s="83"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -20642,11 +20642,11 @@
         <f t="shared" si="5"/>
         <v>608</v>
       </c>
-      <c r="W49" s="83" t="s">
+      <c r="W49" s="87" t="s">
         <v>582</v>
       </c>
-      <c r="X49" s="83"/>
-      <c r="Y49" s="83"/>
+      <c r="X49" s="87"/>
+      <c r="Y49" s="87"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -21020,11 +21020,11 @@
         <f t="shared" si="5"/>
         <v>1725</v>
       </c>
-      <c r="W54" s="83" t="s">
+      <c r="W54" s="87" t="s">
         <v>583</v>
       </c>
-      <c r="X54" s="83"/>
-      <c r="Y54" s="83"/>
+      <c r="X54" s="87"/>
+      <c r="Y54" s="87"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -21398,11 +21398,11 @@
         <f t="shared" si="5"/>
         <v>712</v>
       </c>
-      <c r="W59" s="83" t="s">
+      <c r="W59" s="87" t="s">
         <v>584</v>
       </c>
-      <c r="X59" s="83"/>
-      <c r="Y59" s="83"/>
+      <c r="X59" s="87"/>
+      <c r="Y59" s="87"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -21776,11 +21776,11 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="W64" s="83" t="s">
+      <c r="W64" s="87" t="s">
         <v>585</v>
       </c>
-      <c r="X64" s="83"/>
-      <c r="Y64" s="83"/>
+      <c r="X64" s="87"/>
+      <c r="Y64" s="87"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -22142,11 +22142,11 @@
         <f t="shared" si="5"/>
         <v>45217</v>
       </c>
-      <c r="W69" s="83" t="s">
+      <c r="W69" s="87" t="s">
         <v>586</v>
       </c>
-      <c r="X69" s="83"/>
-      <c r="Y69" s="83"/>
+      <c r="X69" s="87"/>
+      <c r="Y69" s="87"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -22520,11 +22520,11 @@
         <f t="shared" si="15"/>
         <v>3591</v>
       </c>
-      <c r="W74" s="83" t="s">
+      <c r="W74" s="87" t="s">
         <v>587</v>
       </c>
-      <c r="X74" s="83"/>
-      <c r="Y74" s="83"/>
+      <c r="X74" s="87"/>
+      <c r="Y74" s="87"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -22898,11 +22898,11 @@
         <f t="shared" si="15"/>
         <v>11511</v>
       </c>
-      <c r="W79" s="83" t="s">
+      <c r="W79" s="87" t="s">
         <v>588</v>
       </c>
-      <c r="X79" s="83"/>
-      <c r="Y79" s="83"/>
+      <c r="X79" s="87"/>
+      <c r="Y79" s="87"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -23193,11 +23193,11 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="W83" s="83" t="s">
+      <c r="W83" s="87" t="s">
         <v>589</v>
       </c>
-      <c r="X83" s="83"/>
-      <c r="Y83" s="83"/>
+      <c r="X83" s="87"/>
+      <c r="Y83" s="87"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -62002,6 +62002,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="W79:Y79"/>
+    <mergeCell ref="W83:Y83"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="W20:Y20"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
@@ -62011,24 +62029,6 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="W79:Y79"/>
-    <mergeCell ref="W83:Y83"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W69:Y69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62038,7 +62038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9444513-4619-48E8-BA10-92D760C4D8A9}">
   <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -62075,39 +62075,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>540</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="84" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="83" t="s">
         <v>544</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="84" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="83" t="s">
         <v>545</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="83" t="s">
         <v>546</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="19" t="s">
         <v>651</v>
       </c>
@@ -64298,7 +64298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85591A2D-7069-40DB-9539-955946B74862}">
   <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N30" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
@@ -64345,14 +64345,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -66717,7 +66717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2178D-C3AD-4559-BBBE-C65524D756B6}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -66733,8 +66733,8 @@
       <c r="A1" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -66742,9 +66742,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -66800,10 +66800,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="95" t="s">
         <v>611</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="1"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -66829,48 +66829,48 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="93" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="93" t="s">
         <v>604</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="93" t="s">
         <v>606</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="92" t="s">
         <v>624</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
@@ -66882,30 +66882,30 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="91" t="s">
         <v>616</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
       <c r="C18" s="2">
         <v>2638033</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="90" t="s">
         <v>614</v>
       </c>
-      <c r="F18" s="94"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="12">
         <f>C23+C25</f>
         <v>2638033</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="2">
         <v>7332714</v>
       </c>
@@ -66942,12 +66942,12 @@
         <v>4694681</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="I21" s="95" t="s">
+      <c r="I21" s="91" t="s">
         <v>618</v>
       </c>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
@@ -66974,21 +66974,21 @@
       <c r="C25" s="2">
         <v>61872</v>
       </c>
-      <c r="I25" s="95" t="s">
+      <c r="I25" s="91" t="s">
         <v>621</v>
       </c>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="87" t="s">
         <v>632</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="I27" s="13" t="s">
         <v>622</v>
       </c>
@@ -67005,10 +67005,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="87" t="s">
         <v>627</v>
       </c>
-      <c r="D28" s="83"/>
+      <c r="D28" s="87"/>
       <c r="E28" t="s">
         <v>629</v>
       </c>
@@ -67023,13 +67023,13 @@
       <c r="B29">
         <v>10</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="87" t="s">
         <v>633</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
@@ -67047,15 +67047,15 @@
         <f>(G28/B29)*B30</f>
         <v>1500000</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="87" t="s">
         <v>631</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="I31" s="83" t="s">
+      <c r="G31" s="87"/>
+      <c r="I31" s="87" t="s">
         <v>643</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
@@ -67158,23 +67158,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -67188,7 +67188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70861295-509C-42F1-98A7-F27B15B0F558}">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -67209,12 +67209,12 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="94" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -67222,24 +67222,24 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="94" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="98" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9"/>
@@ -67248,10 +67248,10 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="98" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -67261,10 +67261,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="98" t="s">
         <v>594</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -67274,10 +67274,10 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="98" t="s">
         <v>595</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
         <v>646</v>
@@ -67289,10 +67289,10 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="98" t="s">
         <v>596</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="7" t="s">
         <v>609</v>
       </c>
@@ -67304,10 +67304,10 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="95" t="s">
         <v>610</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="31" t="s">
         <v>611</v>
       </c>
@@ -67319,10 +67319,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="98" t="s">
         <v>599</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -67332,10 +67332,10 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="99" t="s">
         <v>600</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -67349,66 +67349,66 @@
         <v>601</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="93" t="s">
         <v>605</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="90" t="s">
+      <c r="C14" s="98"/>
+      <c r="D14" s="93" t="s">
         <v>604</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="98" t="s">
         <v>603</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="90" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="93" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="92" t="s">
         <v>625</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96" t="s">
+      <c r="C16" s="92"/>
+      <c r="D16" s="92" t="s">
         <v>624</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="L16" s="95" t="s">
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="L16" s="91" t="s">
         <v>696</v>
       </c>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
@@ -67434,10 +67434,10 @@
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="97" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="4">
         <f>E21+E23</f>
         <v>1886435</v>
@@ -67451,12 +67451,12 @@
         <f>F19+E25</f>
         <v>4848916</v>
       </c>
-      <c r="L20" s="95" t="s">
+      <c r="L20" s="91" t="s">
         <v>698</v>
       </c>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -67680,6 +67680,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L20:O20"/>
@@ -67689,17 +67700,6 @@
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:J16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
